--- a/examples/wangetal2018/out/ResultFiles/PL_1.0_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_1.0_nfc.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -300,15 +306,18 @@
     <t>ROW ($)</t>
   </si>
   <si>
+    <t>X56</t>
+  </si>
+  <si>
     <t>X42</t>
   </si>
   <si>
+    <t>S 5S</t>
+  </si>
+  <si>
     <t>S 10</t>
   </si>
   <si>
-    <t>S 5S</t>
-  </si>
-  <si>
     <t>Breakdown of compressor by station</t>
   </si>
   <si>
@@ -525,7 +534,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1164,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1186,10 +1195,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.8178156869629674</v>
+        <v>0.7309026526903526</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1197,10 +1206,10 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.1476409410614374</v>
+        <v>0.1722567558034308</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1208,10 +1217,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.006234715025888062</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1219,10 +1228,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03178718304756067</v>
+        <v>0.03177512933896846</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1233,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1241,10 +1250,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006568612900183522</v>
+        <v>0.006566122080357322</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1252,10 +1261,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.02930171506585643</v>
+        <v>0.02924963648356938</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1266,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1274,10 +1283,10 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.03196972826696209</v>
+        <v>0.03199175284066413</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1285,10 +1294,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.4935043882806598</v>
+        <v>0.3808806145592537</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1299,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1310,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1321,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1329,10 +1338,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.007674529333417875</v>
+        <v>0.00936024692960156</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1340,10 +1349,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.05941599780986562</v>
+        <v>0.06571430663499128</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1351,10 +1360,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.003717876171135752</v>
+        <v>0.003108088019516036</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1365,7 +1374,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1376,7 +1385,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1387,7 +1396,7 @@
         <v>32.79022202852632</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1398,7 +1407,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1409,7 +1418,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1417,10 +1426,10 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>351.4327475909387</v>
+        <v>351.9504243692098</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1428,10 +1437,10 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>218.3701178033292</v>
+        <v>218.6917871407202</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1447,10 +1456,10 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>869.6284000585141</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1458,10 +1467,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>7940.824424754817</v>
+        <v>6128.630583296228</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1469,10 +1478,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>330.8676843647841</v>
+        <v>255.3596076373428</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1491,10 +1500,10 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>235708016.1679545</v>
+        <v>275111362.2899045</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1502,10 +1511,10 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1516,7 +1525,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1527,7 +1536,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1535,100 +1544,85 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>46780040</v>
+        <v>46714611</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>650</v>
-      </c>
-      <c r="B46">
-        <v>226.7043701228044</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D46" t="s">
+      <c r="H46" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E46">
-        <v>63520170.4986524</v>
-      </c>
-      <c r="F46">
-        <v>48786667.92485026</v>
-      </c>
-      <c r="G46">
-        <v>21454790.17252036</v>
-      </c>
-      <c r="H46">
-        <v>4108535.322792372</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1636,133 +1630,211 @@
         <v>750</v>
       </c>
       <c r="B47">
-        <v>124.7283774681343</v>
+        <v>66.87842996731858</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47">
+        <v>25292769.99907608</v>
+      </c>
+      <c r="F47">
+        <v>18964108.27264981</v>
+      </c>
+      <c r="G47">
+        <v>8216487.250360911</v>
+      </c>
+      <c r="H47">
+        <v>1331071.576265521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>850</v>
+      </c>
+      <c r="B48">
+        <v>125.930046518719</v>
+      </c>
+      <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="E47">
-        <v>47171055.97725725</v>
-      </c>
-      <c r="F47">
-        <v>33560092.39236415</v>
-      </c>
-      <c r="G47">
-        <v>14612917.32917216</v>
-      </c>
-      <c r="H47">
-        <v>2493786.550345527</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48">
+        <v>60996007.82701241</v>
+      </c>
+      <c r="F48">
+        <v>39389810.11439986</v>
+      </c>
+      <c r="G48">
+        <v>17075480.48973769</v>
+      </c>
+      <c r="H48">
+        <v>2754428.568350168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>650</v>
+      </c>
+      <c r="B49">
+        <v>94.97724799486787</v>
+      </c>
+      <c r="C49" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="D49" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53">
-        <v>13.14848279672079</v>
-      </c>
-      <c r="C53">
-        <v>12.5</v>
-      </c>
-      <c r="D53">
-        <v>869.6284000585141</v>
-      </c>
-      <c r="E53">
-        <v>9953691.026075777</v>
-      </c>
-      <c r="F53">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G53">
-        <v>125.670333903229</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="E49">
+        <v>26611621.92355962</v>
+      </c>
+      <c r="F49">
+        <v>21992328.93809709</v>
+      </c>
+      <c r="G49">
+        <v>9604597.533921521</v>
+      </c>
+      <c r="H49">
+        <v>1710348.858155273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>650</v>
+      </c>
+      <c r="B50">
+        <v>64.16469988830436</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50">
+        <v>17978271.32618636</v>
+      </c>
+      <c r="F50">
+        <v>15356326.47408331</v>
+      </c>
+      <c r="G50">
+        <v>6685534.038244058</v>
+      </c>
+      <c r="H50">
+        <v>1152169.099804831</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B54">
-        <v>10.76337364611623</v>
-      </c>
-      <c r="C54">
+      <c r="H55" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56">
+        <v>8.973797769597157</v>
+      </c>
+      <c r="C56">
         <v>12.5</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>16916025.69007904</v>
       </c>
-      <c r="G54">
-        <v>102.8739802869109</v>
-      </c>
-      <c r="H54">
+      <c r="G56">
+        <v>85.7696039551105</v>
+      </c>
+      <c r="H56">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55">
-        <v>10.70576508119896</v>
-      </c>
-      <c r="C55">
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57">
+        <v>7.03652409411679</v>
+      </c>
+      <c r="C57">
         <v>12.5</v>
       </c>
-      <c r="D55">
+      <c r="D57">
         <v>0</v>
       </c>
-      <c r="E55">
+      <c r="E57">
         <v>0</v>
       </c>
-      <c r="F55">
+      <c r="F57">
         <v>16916025.69007904</v>
       </c>
-      <c r="G55">
-        <v>102.3233701746442</v>
-      </c>
-      <c r="H55">
+      <c r="G57">
+        <v>67.25356423984609</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58">
+        <v>10.70713247664333</v>
+      </c>
+      <c r="C58">
+        <v>12.5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G58">
+        <v>102.3364394423862</v>
+      </c>
+      <c r="H58">
         <v>0</v>
       </c>
     </row>
@@ -1781,58 +1853,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1840,31 +1912,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F2">
-        <v>22.90716899040221</v>
+        <v>18.37639870606631</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
         <v>4.865822962046021</v>
@@ -1879,16 +1951,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>4461867.614186505</v>
+        <v>4604711.019968713</v>
       </c>
       <c r="P2">
-        <v>19.00068689079052</v>
+        <v>14.7931302607678</v>
       </c>
       <c r="Q2">
-        <v>0.01461629107599491</v>
+        <v>0.0113698780777808</v>
       </c>
       <c r="R2">
-        <v>63.15007000040802</v>
+        <v>62.21224553004446</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1896,55 +1968,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F3">
-        <v>22.90717821749082</v>
+        <v>18.37641602247428</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>27.55828334839279</v>
+        <v>26.87842996731858</v>
       </c>
       <c r="M3">
-        <v>17.12391808247418</v>
+        <v>16.70147690722272</v>
       </c>
       <c r="N3">
-        <v>4461867.614186505</v>
+        <v>4604711.019968713</v>
       </c>
       <c r="O3">
-        <v>4162035.706849938</v>
+        <v>4421055.739474997</v>
       </c>
       <c r="P3">
-        <v>20.29857594889554</v>
+        <v>15.37613478527123</v>
       </c>
       <c r="Q3">
-        <v>0.01564401525707843</v>
+        <v>0.01183104696041124</v>
       </c>
       <c r="R3">
-        <v>65.27133563137399</v>
+        <v>63.42622962632674</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1952,55 +2024,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F4">
-        <v>23.20648662592444</v>
+        <v>27.58122988046236</v>
       </c>
       <c r="G4">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I4">
-        <v>7.925</v>
+        <v>6.35</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>5.096226240974513</v>
+        <v>5.060455880527861</v>
       </c>
       <c r="L4">
-        <v>67.55828334839279</v>
+        <v>66.87842996731858</v>
       </c>
       <c r="M4">
-        <v>41.97875808247418</v>
+        <v>41.55631690722272</v>
       </c>
       <c r="N4">
         <v>4865822.962046022</v>
       </c>
       <c r="O4">
-        <v>4162035.706849938</v>
+        <v>4421055.739474997</v>
       </c>
       <c r="P4">
-        <v>20.36012673604015</v>
+        <v>16.90744935110181</v>
       </c>
       <c r="Q4">
-        <v>0.01569145215391296</v>
+        <v>0.01300930500721619</v>
       </c>
       <c r="R4">
-        <v>65.27133563137399</v>
+        <v>63.42622962632674</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2008,55 +2080,55 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F5">
-        <v>46.11383095474663</v>
+        <v>45.95770846260396</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>2.441716651607209</v>
+        <v>3.121570032681419</v>
       </c>
       <c r="M5">
-        <v>1.517211917525823</v>
+        <v>1.939653092777286</v>
       </c>
       <c r="N5">
-        <v>4162035.706849938</v>
+        <v>4421055.739474997</v>
       </c>
       <c r="O5">
-        <v>4054519.671706123</v>
+        <v>4291908.338488573</v>
       </c>
       <c r="P5">
-        <v>41.8918364629691</v>
+        <v>39.55283097937308</v>
       </c>
       <c r="Q5">
-        <v>0.03230849889031442</v>
+        <v>0.03045799600717018</v>
       </c>
       <c r="R5">
-        <v>66.08791183676499</v>
+        <v>64.32559860892619</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2064,31 +2136,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F6">
-        <v>21.75449177360982</v>
+        <v>18.70123835742191</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>4.865822962046021</v>
@@ -2103,16 +2175,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O6">
-        <v>4581165.049315861</v>
+        <v>4654255.379233229</v>
       </c>
       <c r="P6">
-        <v>17.59877749004132</v>
+        <v>14.90311811320608</v>
       </c>
       <c r="Q6">
-        <v>0.01352816599744561</v>
+        <v>0.01145106699837688</v>
       </c>
       <c r="R6">
-        <v>62.36384435398985</v>
+        <v>61.8969821609487</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2120,31 +2192,31 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F7">
-        <v>13.64183665428055</v>
+        <v>10.58858331895777</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
         <v>4.865822962046021</v>
@@ -2156,19 +2228,19 @@
         <v>30.1364935</v>
       </c>
       <c r="N7">
-        <v>4581165.049315861</v>
+        <v>4654255.379233229</v>
       </c>
       <c r="O7">
-        <v>4392201.480543194</v>
+        <v>4539949.726487547</v>
       </c>
       <c r="P7">
-        <v>11.48628242147334</v>
+        <v>8.639698762476106</v>
       </c>
       <c r="Q7">
-        <v>0.008839596367585533</v>
+        <v>0.006642963629184023</v>
       </c>
       <c r="R7">
-        <v>63.6237656929709</v>
+        <v>62.63200710224757</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2176,55 +2248,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F8">
-        <v>13.64183664090163</v>
+        <v>10.58858252630346</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>44.72837746813428</v>
+        <v>45.93004651871898</v>
       </c>
       <c r="M8">
-        <v>27.79291663575207</v>
+        <v>28.53959893538293</v>
       </c>
       <c r="N8">
-        <v>4392201.480543194</v>
+        <v>4539949.726487547</v>
       </c>
       <c r="O8">
-        <v>4210814.862629415</v>
+        <v>4429122.43975577</v>
       </c>
       <c r="P8">
-        <v>11.95579006928591</v>
+        <v>8.844875998155061</v>
       </c>
       <c r="Q8">
-        <v>0.00921138644738227</v>
+        <v>0.006805284934551139</v>
       </c>
       <c r="R8">
-        <v>64.9110682963596</v>
+        <v>63.3713463029601</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2232,55 +2304,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F9">
-        <v>24.10045336296935</v>
+        <v>27.08012621256779</v>
       </c>
       <c r="G9">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9">
+        <v>7.925</v>
+      </c>
+      <c r="J9" t="s">
         <v>93</v>
       </c>
-      <c r="I9">
-        <v>6.35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>83</v>
-      </c>
       <c r="K9">
-        <v>5.060455880527861</v>
+        <v>5.2393506610438</v>
       </c>
       <c r="L9">
-        <v>124.7283774681343</v>
+        <v>125.930046518719</v>
       </c>
       <c r="M9">
-        <v>77.50259663575208</v>
+        <v>78.24927893538295</v>
       </c>
       <c r="N9">
         <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4210814.862629415</v>
+        <v>4429122.43975577</v>
       </c>
       <c r="P9">
-        <v>15.47424014870184</v>
+        <v>12.9467009555296</v>
       </c>
       <c r="Q9">
-        <v>0.01192219043352642</v>
+        <v>0.009961246373966386</v>
       </c>
       <c r="R9">
-        <v>64.9110682963596</v>
+        <v>63.3713463029601</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2288,55 +2360,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F10">
-        <v>37.74227520930182</v>
+        <v>37.66869080026883</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>5.271622531865717</v>
+        <v>4.069953481281019</v>
       </c>
       <c r="M10">
-        <v>3.275633364247932</v>
+        <v>2.528951064617068</v>
       </c>
       <c r="N10">
-        <v>4210814.862629415</v>
+        <v>4429122.43975577</v>
       </c>
       <c r="O10">
-        <v>4054379.633258044</v>
+        <v>4315072.842767674</v>
       </c>
       <c r="P10">
-        <v>34.28893574383666</v>
+        <v>32.25486271777265</v>
       </c>
       <c r="Q10">
-        <v>0.02644489142730761</v>
+        <v>0.0248345289501924</v>
       </c>
       <c r="R10">
-        <v>66.08899623405688</v>
+        <v>64.16135532965657</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2344,31 +2416,31 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F11">
-        <v>18.64290553804436</v>
+        <v>18.64291895615299</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
         <v>4.865822962046021</v>
@@ -2383,16 +2455,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O11">
-        <v>4527730.746879227</v>
+        <v>4527730.265526723</v>
       </c>
       <c r="P11">
-        <v>15.25056530200702</v>
+        <v>15.25057781657818</v>
       </c>
       <c r="Q11">
-        <v>0.01172684122057515</v>
+        <v>0.01172685087748158</v>
       </c>
       <c r="R11">
-        <v>62.71220320658104</v>
+        <v>62.71220637213217</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2400,55 +2472,55 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F12">
-        <v>18.64290552748645</v>
+        <v>18.64291894602539</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
         <v>4.865822962046021</v>
       </c>
       <c r="L12">
-        <v>44.98137793743125</v>
+        <v>44.97724799486787</v>
       </c>
       <c r="M12">
-        <v>27.95012379035959</v>
+        <v>27.94755756381904</v>
       </c>
       <c r="N12">
-        <v>4527730.746879227</v>
+        <v>4527730.265526723</v>
       </c>
       <c r="O12">
-        <v>4201639.021993379</v>
+        <v>4201669.082444618</v>
       </c>
       <c r="P12">
-        <v>16.37266557101798</v>
+        <v>16.37256607509078</v>
       </c>
       <c r="Q12">
-        <v>0.01261512557136674</v>
+        <v>0.01261504648428702</v>
       </c>
       <c r="R12">
-        <v>64.9783655475007</v>
+        <v>64.97814472400266</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2456,55 +2528,55 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F13">
-        <v>18.88678687628043</v>
+        <v>18.88680046946571</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I13">
         <v>7.925</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K13">
         <v>5.096226240974513</v>
       </c>
       <c r="L13">
-        <v>94.98137793743125</v>
+        <v>94.97724799486787</v>
       </c>
       <c r="M13">
-        <v>59.01867379035959</v>
+        <v>59.01610756381904</v>
       </c>
       <c r="N13">
         <v>4865822.962046022</v>
       </c>
       <c r="O13">
-        <v>4201639.021993379</v>
+        <v>4201669.082444618</v>
       </c>
       <c r="P13">
-        <v>16.42255951576521</v>
+        <v>16.42245971418182</v>
       </c>
       <c r="Q13">
-        <v>0.01265356881541316</v>
+        <v>0.01265348948543399</v>
       </c>
       <c r="R13">
-        <v>64.9783655475007</v>
+        <v>64.97814472400266</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2512,55 +2584,55 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F14">
-        <v>37.52969225806144</v>
+        <v>37.52971925258475</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
         <v>4.865822962046021</v>
       </c>
       <c r="L14">
-        <v>5.018622062568753</v>
+        <v>5.022752005132133</v>
       </c>
       <c r="M14">
-        <v>3.118426209640409</v>
+        <v>3.120992436180958</v>
       </c>
       <c r="N14">
-        <v>4201639.021993379</v>
+        <v>4201669.082444618</v>
       </c>
       <c r="O14">
-        <v>4054174.111408275</v>
+        <v>4054081.551508321</v>
       </c>
       <c r="P14">
-        <v>34.0974930905135</v>
+        <v>34.09825721429681</v>
       </c>
       <c r="Q14">
-        <v>0.02629727948837034</v>
+        <v>0.02629788488563565</v>
       </c>
       <c r="R14">
-        <v>66.09058780672615</v>
+        <v>66.0913046346774</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2568,31 +2640,31 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F15">
-        <v>18.53785958496141</v>
+        <v>18.53785958495931</v>
       </c>
       <c r="G15">
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
         <v>4.865822962046021</v>
@@ -2607,16 +2679,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O15">
-        <v>4531487.97729018</v>
+        <v>4531487.977290199</v>
       </c>
       <c r="P15">
-        <v>15.15269344256144</v>
+        <v>15.15269344255384</v>
       </c>
       <c r="Q15">
-        <v>0.01165132040630385</v>
+        <v>0.011651320406298</v>
       </c>
       <c r="R15">
-        <v>62.68750946773089</v>
+        <v>62.68750946773076</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2624,55 +2696,55 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F16">
-        <v>18.53785958480184</v>
+        <v>18.53785958483234</v>
       </c>
       <c r="G16">
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16">
         <v>4.865822962046021</v>
       </c>
       <c r="L16">
-        <v>14.1647088369804</v>
+        <v>14.16469988830436</v>
       </c>
       <c r="M16">
-        <v>8.801539294743348</v>
+        <v>8.801533734295569</v>
       </c>
       <c r="N16">
-        <v>4531487.97729018</v>
+        <v>4531487.977290199</v>
       </c>
       <c r="O16">
-        <v>4432431.060441923</v>
+        <v>4432431.123685917</v>
       </c>
       <c r="P16">
-        <v>15.4741094208432</v>
+        <v>15.47410921142417</v>
       </c>
       <c r="Q16">
-        <v>0.01190560434922545</v>
+        <v>0.01190560418350003</v>
       </c>
       <c r="R16">
-        <v>63.3488782797776</v>
+        <v>63.3488778505408</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2680,55 +2752,55 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F17">
-        <v>18.78037738691658</v>
+        <v>18.78037738692247</v>
       </c>
       <c r="G17">
         <v>650</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I17">
         <v>7.925</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K17">
         <v>5.096226240974513</v>
       </c>
       <c r="L17">
-        <v>64.1647088369804</v>
+        <v>64.16469988830436</v>
       </c>
       <c r="M17">
-        <v>39.87008929474334</v>
+        <v>39.87008373429557</v>
       </c>
       <c r="N17">
         <v>4865822.962046022</v>
       </c>
       <c r="O17">
-        <v>4432431.060441923</v>
+        <v>4432431.123685917</v>
       </c>
       <c r="P17">
-        <v>15.52127390478359</v>
+        <v>15.52127369450359</v>
       </c>
       <c r="Q17">
-        <v>0.01194189216843741</v>
+        <v>0.01194189200203555</v>
       </c>
       <c r="R17">
-        <v>63.3488782797776</v>
+        <v>63.3488778505408</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2736,55 +2808,55 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F18">
-        <v>37.31823697360687</v>
+        <v>37.31823697365765</v>
       </c>
       <c r="G18">
         <v>650</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>9.525</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18">
         <v>4.865822962046021</v>
       </c>
       <c r="L18">
-        <v>35.8352911630196</v>
+        <v>35.83530011169564</v>
       </c>
       <c r="M18">
-        <v>22.26701070525665</v>
+        <v>22.26701626570443</v>
       </c>
       <c r="N18">
-        <v>4432431.060441923</v>
+        <v>4432431.123685917</v>
       </c>
       <c r="O18">
-        <v>3327636.52174557</v>
+        <v>3327636.285616316</v>
       </c>
       <c r="P18">
-        <v>40.90214879046989</v>
+        <v>40.9021515466116</v>
       </c>
       <c r="Q18">
-        <v>0.03171209214015804</v>
+        <v>0.0317120943373374</v>
       </c>
       <c r="R18">
-        <v>72.59026712922945</v>
+        <v>72.59026957480964</v>
       </c>
     </row>
   </sheetData>
@@ -2802,72 +2874,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2876,22 +2948,22 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.200098496500451</v>
+        <v>1.133720149242413</v>
       </c>
       <c r="I2">
-        <v>125.670333903229</v>
+        <v>85.7696039551105</v>
       </c>
       <c r="J2">
-        <v>13.14848279672079</v>
+        <v>8.973797769597157</v>
       </c>
       <c r="K2">
-        <v>17632.37840005851</v>
+        <v>12034.04228498518</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.14848279672079</v>
+        <v>12.5</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2900,27 +2972,27 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>16916025.69007904</v>
       </c>
       <c r="R2">
-        <v>26869716.71615482</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2929,16 +3001,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.200139947954482</v>
+        <v>1.127634025970486</v>
       </c>
       <c r="I3">
-        <v>102.8739802869109</v>
+        <v>67.25356423984609</v>
       </c>
       <c r="J3">
-        <v>10.76337364611623</v>
+        <v>7.03652409411679</v>
       </c>
       <c r="K3">
-        <v>14433.89932691478</v>
+        <v>9436.119540692498</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2964,16 +3036,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2982,16 +3054,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.200200787715012</v>
+        <v>1.200228189843811</v>
       </c>
       <c r="I4">
-        <v>102.3233701746442</v>
+        <v>102.3364394423862</v>
       </c>
       <c r="J4">
-        <v>10.70576508119896</v>
+        <v>10.70713247664333</v>
       </c>
       <c r="K4">
-        <v>14356.64508918943</v>
+        <v>14358.47879382824</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3030,15 +3102,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -3046,31 +3118,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3">
-        <v>4461867.614186505</v>
+        <v>4604711.019968713</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B4">
-        <v>4162035.706849938</v>
+        <v>4421055.739474997</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B5">
-        <v>4054519.671706123</v>
+        <v>4291908.338488573</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>4865822.962046022</v>
@@ -3078,39 +3150,39 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B7">
-        <v>4581165.049315861</v>
+        <v>4654255.379233229</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B8">
-        <v>4392201.480543194</v>
+        <v>4539949.726487547</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B9">
-        <v>4210814.862629415</v>
+        <v>4429122.43975577</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B10">
-        <v>4054379.633258044</v>
+        <v>4315072.842767674</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>4865822.962046022</v>
@@ -3118,31 +3190,31 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B12">
-        <v>4527730.746879227</v>
+        <v>4527730.265526723</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B13">
-        <v>4201639.021993379</v>
+        <v>4201669.082444618</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B14">
-        <v>4054174.111408275</v>
+        <v>4054081.551508321</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B15">
         <v>4865822.962046022</v>
@@ -3150,26 +3222,26 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B16">
-        <v>4531487.97729018</v>
+        <v>4531487.977290199</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B17">
-        <v>4432431.060441923</v>
+        <v>4432431.123685917</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B18">
-        <v>3327636.52174557</v>
+        <v>3327636.285616316</v>
       </c>
     </row>
   </sheetData>
@@ -3187,36 +3259,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112655119329268</v>
+        <v>8.112655038464142</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -3225,21 +3297,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.51966914585</v>
+        <v>1150.519657677729</v>
       </c>
       <c r="G2">
-        <v>-6.352378885310295E-05</v>
+        <v>-6.45205657848566E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.0929164276683</v>
+        <v>21.092916427697</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -3248,21 +3320,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353000062993</v>
+        <v>2991.353000067063</v>
       </c>
       <c r="G3">
-        <v>2.105832931819789E-09</v>
+        <v>2.24190882208399E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
       </c>
       <c r="C4">
-        <v>16.22532054593858</v>
+        <v>16.22532054596066</v>
       </c>
       <c r="D4">
         <v>141.8178946624533</v>
@@ -3271,10 +3343,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040800048456</v>
+        <v>2301.040800051587</v>
       </c>
       <c r="G4">
-        <v>2.105836272292823E-09</v>
+        <v>2.241898686209554E-09</v>
       </c>
     </row>
   </sheetData>

--- a/examples/wangetal2018/out/ResultFiles/PL_1.0_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_1.0_nfc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="247">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -402,9 +402,18 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02_pre_loop_cxn</t>
   </si>
   <si>
@@ -414,12 +423,27 @@
     <t>PI02_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
     <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
@@ -429,9 +453,21 @@
     <t>PI05_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
     <t>PI06</t>
   </si>
   <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
     <t>PI07_pre_loop_cxn</t>
   </si>
   <si>
@@ -441,55 +477,211 @@
     <t>PI07_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09_pre_loop_cxn</t>
+    <t>PI09_0_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_3_loop</t>
   </si>
   <si>
-    <t>PI09_post_loop_cxn</t>
+    <t>PI09_0_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>PI09</t>
+  </si>
+  <si>
+    <t>PS_0_loop_0</t>
+  </si>
+  <si>
+    <t>PS_0_loop_1</t>
+  </si>
+  <si>
+    <t>PS_0_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_0</t>
+  </si>
+  <si>
+    <t>PS_1_loop_1</t>
+  </si>
+  <si>
+    <t>PS_1_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_3</t>
+  </si>
+  <si>
+    <t>PS_1_loop_4</t>
+  </si>
+  <si>
+    <t>PS_2_loop_0</t>
+  </si>
+  <si>
+    <t>PS_2_loop_1</t>
+  </si>
+  <si>
+    <t>PS_2_loop_2</t>
+  </si>
+  <si>
+    <t>PS_2_loop_3</t>
+  </si>
+  <si>
+    <t>PS_2_loop_4</t>
+  </si>
+  <si>
+    <t>PS_3_loop_0</t>
+  </si>
+  <si>
+    <t>PS_3_loop_1</t>
+  </si>
+  <si>
+    <t>PS_3_loop_2</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N01_2</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N03_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N06_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
   </si>
   <si>
+    <t>N08_C_2</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_3</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
+    <t>N01_0_</t>
+  </si>
+  <si>
+    <t>N01_1_</t>
+  </si>
+  <si>
+    <t>N03_C_0_</t>
+  </si>
+  <si>
+    <t>N03_C_1</t>
+  </si>
+  <si>
+    <t>N03_C_2</t>
+  </si>
+  <si>
+    <t>N03_C_3</t>
+  </si>
+  <si>
+    <t>N06_C_0_</t>
+  </si>
+  <si>
+    <t>N06_C_1_</t>
+  </si>
+  <si>
+    <t>N06_C_2</t>
+  </si>
+  <si>
+    <t>N06_C_3</t>
+  </si>
+  <si>
+    <t>N08_C_0_</t>
+  </si>
+  <si>
+    <t>N08_C_1_</t>
   </si>
   <si>
     <t>N03</t>
@@ -1195,7 +1387,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.7309026526903526</v>
+        <v>0.7445992865040931</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1206,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.1722567558034308</v>
+        <v>0.1738200923366254</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1228,7 +1420,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03177512933896846</v>
+        <v>0.03179515265803235</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1250,7 +1442,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006566122080357322</v>
+        <v>0.006570259767918713</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1261,7 +1453,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.02924963648356938</v>
+        <v>0.03004691056639061</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1283,7 +1475,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.03199175284066413</v>
+        <v>0.03213850353210482</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1294,7 +1486,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.3808806145592537</v>
+        <v>0.3911768180226777</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1338,7 +1530,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.00936024692960156</v>
+        <v>0.009481832440991237</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1349,7 +1541,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.06571430663499128</v>
+        <v>0.06639265626472289</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1360,7 +1552,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.003108088019516036</v>
+        <v>0.003177060914629444</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1426,7 +1618,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>351.9504243692098</v>
+        <v>355.3997272334474</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -1437,7 +1629,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>218.6917871407202</v>
+        <v>220.8350839107745</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -1467,7 +1659,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>6128.630583296228</v>
+        <v>6294.303565920454</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1478,7 +1670,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>255.3596076373428</v>
+        <v>262.2626485800189</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1500,7 +1692,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>275111362.2899045</v>
+        <v>277433341.4004338</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -1544,7 +1736,7 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>46714611</v>
+        <v>47957717</v>
       </c>
       <c r="C34" t="s">
         <v>78</v>
@@ -1585,7 +1777,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1630,7 +1822,7 @@
         <v>750</v>
       </c>
       <c r="B47">
-        <v>66.87842996731858</v>
+        <v>67.27108098804109</v>
       </c>
       <c r="C47" t="s">
         <v>85</v>
@@ -1639,16 +1831,16 @@
         <v>95</v>
       </c>
       <c r="E47">
-        <v>25292769.99907608</v>
+        <v>25441266.78588597</v>
       </c>
       <c r="F47">
-        <v>18964108.27264981</v>
+        <v>19066049.85009117</v>
       </c>
       <c r="G47">
-        <v>8216487.250360911</v>
+        <v>8261040.884823925</v>
       </c>
       <c r="H47">
-        <v>1331071.576265521</v>
+        <v>1338943.747242198</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1656,7 +1848,7 @@
         <v>850</v>
       </c>
       <c r="B48">
-        <v>125.930046518719</v>
+        <v>126.4317498403241</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
@@ -1665,16 +1857,16 @@
         <v>96</v>
       </c>
       <c r="E48">
-        <v>60996007.82701241</v>
+        <v>61239014.96134963</v>
       </c>
       <c r="F48">
-        <v>39389810.11439986</v>
+        <v>39533502.62936214</v>
       </c>
       <c r="G48">
-        <v>17075480.48973769</v>
+        <v>17138314.96048751</v>
       </c>
       <c r="H48">
-        <v>2754428.568350168</v>
+        <v>2765482.546141236</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1682,7 +1874,7 @@
         <v>650</v>
       </c>
       <c r="B49">
-        <v>94.97724799486787</v>
+        <v>95.86730368299028</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
@@ -1691,16 +1883,16 @@
         <v>96</v>
       </c>
       <c r="E49">
-        <v>26611621.92355962</v>
+        <v>26861006.12833788</v>
       </c>
       <c r="F49">
-        <v>21992328.93809709</v>
+        <v>22180999.18794229</v>
       </c>
       <c r="G49">
-        <v>9604597.533921521</v>
+        <v>9687715.600928038</v>
       </c>
       <c r="H49">
-        <v>1710348.858155273</v>
+        <v>1726494.684425034</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1708,7 +1900,7 @@
         <v>650</v>
       </c>
       <c r="B50">
-        <v>64.16469988830436</v>
+        <v>65.82959272209196</v>
       </c>
       <c r="C50" t="s">
         <v>94</v>
@@ -1717,16 +1909,16 @@
         <v>96</v>
       </c>
       <c r="E50">
-        <v>17978271.32618636</v>
+        <v>18444756.71686007</v>
       </c>
       <c r="F50">
-        <v>15356326.47408331</v>
+        <v>15720839.13074854</v>
       </c>
       <c r="G50">
-        <v>6685534.038244058</v>
+        <v>6845627.58219784</v>
       </c>
       <c r="H50">
-        <v>1152169.099804831</v>
+        <v>1182286.003610384</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1765,7 +1957,7 @@
         <v>106</v>
       </c>
       <c r="B56">
-        <v>8.973797769597157</v>
+        <v>9.216866501704573</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1780,7 +1972,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>85.7696039551105</v>
+        <v>88.09280193906284</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1791,7 +1983,7 @@
         <v>107</v>
       </c>
       <c r="B57">
-        <v>7.03652409411679</v>
+        <v>7.238417771421404</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1806,7 +1998,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>67.25356423984609</v>
+        <v>69.18322002082708</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1817,7 +2009,7 @@
         <v>108</v>
       </c>
       <c r="B58">
-        <v>10.70713247664333</v>
+        <v>10.9844130362818</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -1832,7 +2024,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>102.3364394423862</v>
+        <v>104.986626620129</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1845,7 +2037,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1915,16 +2107,16 @@
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F2">
-        <v>18.37639870606631</v>
+        <v>18.3825465739817</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1942,25 +2134,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>4604711.019968713</v>
+        <v>4778476.136650475</v>
       </c>
       <c r="P2">
-        <v>14.7931302607678</v>
+        <v>14.36058832956689</v>
       </c>
       <c r="Q2">
-        <v>0.0113698780777808</v>
+        <v>0.01091435122731996</v>
       </c>
       <c r="R2">
-        <v>62.21224553004446</v>
+        <v>61.75463230829128</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1971,16 +2163,16 @@
         <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F3">
-        <v>18.37641602247428</v>
+        <v>18.38254842243155</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -1998,25 +2190,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>26.87842996731858</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>16.70147690722272</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>4604711.019968713</v>
+        <v>4778476.136650475</v>
       </c>
       <c r="O3">
-        <v>4421055.739474997</v>
+        <v>4689552.76556046</v>
       </c>
       <c r="P3">
-        <v>15.37613478527123</v>
+        <v>14.39684364107618</v>
       </c>
       <c r="Q3">
-        <v>0.01183104696041124</v>
+        <v>0.01094546571188542</v>
       </c>
       <c r="R3">
-        <v>63.42622962632674</v>
+        <v>62.31951158323189</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2027,52 +2219,52 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="F4">
-        <v>27.58122988046236</v>
+        <v>18.38255041602254</v>
       </c>
       <c r="G4">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I4">
-        <v>6.35</v>
+        <v>9.525</v>
       </c>
       <c r="J4" t="s">
         <v>85</v>
       </c>
       <c r="K4">
-        <v>5.060455880527861</v>
+        <v>4.865822962046021</v>
       </c>
       <c r="L4">
-        <v>66.87842996731858</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M4">
-        <v>41.55631690722272</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N4">
-        <v>4865822.962046022</v>
+        <v>4689552.76556046</v>
       </c>
       <c r="O4">
-        <v>4421055.739474997</v>
+        <v>4598964.269582397</v>
       </c>
       <c r="P4">
-        <v>16.90744935110181</v>
+        <v>14.43337821934101</v>
       </c>
       <c r="Q4">
-        <v>0.01300930500721619</v>
+        <v>0.01097700405090688</v>
       </c>
       <c r="R4">
-        <v>63.42622962632674</v>
+        <v>62.91120967503881</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2083,16 +2275,16 @@
         <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F5">
-        <v>45.95770846260396</v>
+        <v>18.38255205432124</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2110,45 +2302,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>3.121570032681419</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>1.939653092777286</v>
+        <v>9.320565</v>
       </c>
       <c r="N5">
-        <v>4421055.739474997</v>
+        <v>4598964.269582397</v>
       </c>
       <c r="O5">
-        <v>4291908.338488573</v>
+        <v>4494935.289049209</v>
       </c>
       <c r="P5">
-        <v>39.55283097937308</v>
+        <v>14.47481509868105</v>
       </c>
       <c r="Q5">
-        <v>0.03045799600717018</v>
+        <v>0.01101241996070887</v>
       </c>
       <c r="R5">
-        <v>64.32559860892619</v>
+        <v>63.61540018770358</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F6">
-        <v>18.70123835742191</v>
+        <v>18.38255424897293</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2166,101 +2358,101 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L6">
-        <v>31.5</v>
+        <v>12.27108098804109</v>
       </c>
       <c r="M6">
-        <v>19.5731865</v>
+        <v>7.624893864620081</v>
       </c>
       <c r="N6">
-        <v>4865822.962046022</v>
+        <v>4494935.289049209</v>
       </c>
       <c r="O6">
-        <v>4654255.379233229</v>
+        <v>4408056.77505426</v>
       </c>
       <c r="P6">
-        <v>14.90311811320608</v>
+        <v>14.50898584471422</v>
       </c>
       <c r="Q6">
-        <v>0.01145106699837688</v>
+        <v>0.01104176678941676</v>
       </c>
       <c r="R6">
-        <v>61.8969821609487</v>
+        <v>64.22221610315223</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="F7">
-        <v>10.58858331895777</v>
+        <v>27.59047998702352</v>
       </c>
       <c r="G7">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I7">
-        <v>9.525</v>
+        <v>6.35</v>
       </c>
       <c r="J7" t="s">
         <v>85</v>
       </c>
       <c r="K7">
-        <v>4.865822962046021</v>
+        <v>5.060455880527861</v>
       </c>
       <c r="L7">
-        <v>48.5</v>
+        <v>16.81777024701027</v>
       </c>
       <c r="M7">
-        <v>30.1364935</v>
+        <v>10.45007471615502</v>
       </c>
       <c r="N7">
-        <v>4654255.379233229</v>
+        <v>4526713.908648961</v>
       </c>
       <c r="O7">
-        <v>4539949.726487547</v>
+        <v>4408056.77505426</v>
       </c>
       <c r="P7">
-        <v>8.639698762476106</v>
+        <v>15.96454885823862</v>
       </c>
       <c r="Q7">
-        <v>0.006642963629184023</v>
+        <v>0.01214449054403224</v>
       </c>
       <c r="R7">
-        <v>62.63200710224757</v>
+        <v>64.22221610315223</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F8">
-        <v>10.58858252630346</v>
+        <v>45.97251599450635</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2278,25 +2470,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>45.93004651871898</v>
+        <v>2.728919011958908</v>
       </c>
       <c r="M8">
-        <v>28.53959893538293</v>
+        <v>1.695671135379919</v>
       </c>
       <c r="N8">
-        <v>4539949.726487547</v>
+        <v>4408056.77505426</v>
       </c>
       <c r="O8">
-        <v>4429122.43975577</v>
+        <v>4292362.832967781</v>
       </c>
       <c r="P8">
-        <v>8.844875998155061</v>
+        <v>36.29275634257312</v>
       </c>
       <c r="Q8">
-        <v>0.006805284934551139</v>
+        <v>0.02763148425186733</v>
       </c>
       <c r="R8">
-        <v>63.3713463029601</v>
+        <v>65.05793070346856</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2307,52 +2499,52 @@
         <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="F9">
-        <v>27.08012621256779</v>
+        <v>18.71055834432883</v>
       </c>
       <c r="G9">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I9">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>5.2393506610438</v>
+        <v>4.865822962046021</v>
       </c>
       <c r="L9">
-        <v>125.930046518719</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>78.24927893538295</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
         <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4429122.43975577</v>
+        <v>4758887.900226681</v>
       </c>
       <c r="P9">
-        <v>12.9467009555296</v>
+        <v>14.62685978924032</v>
       </c>
       <c r="Q9">
-        <v>0.009961246373966386</v>
+        <v>0.01111750946422286</v>
       </c>
       <c r="R9">
-        <v>63.3713463029601</v>
+        <v>61.87774561835261</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2363,16 +2555,16 @@
         <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F10">
-        <v>37.66869080026883</v>
+        <v>18.71055831936302</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2390,45 +2582,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>4.069953481281019</v>
+        <v>15.75</v>
       </c>
       <c r="M10">
-        <v>2.528951064617068</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N10">
-        <v>4429122.43975577</v>
+        <v>4758887.900226681</v>
       </c>
       <c r="O10">
-        <v>4315072.842767674</v>
+        <v>4649570.415577726</v>
       </c>
       <c r="P10">
-        <v>32.25486271777265</v>
+        <v>14.67056318186459</v>
       </c>
       <c r="Q10">
-        <v>0.0248345289501924</v>
+        <v>0.01115523738264928</v>
       </c>
       <c r="R10">
-        <v>64.16135532965657</v>
+        <v>62.57859883690546</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F11">
-        <v>18.64291895615299</v>
+        <v>10.597896891368</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2446,45 +2638,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M11">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N11">
-        <v>4865822.962046022</v>
+        <v>4649570.415577726</v>
       </c>
       <c r="O11">
-        <v>4527730.265526723</v>
+        <v>4610858.908383902</v>
       </c>
       <c r="P11">
-        <v>15.25057781657818</v>
+        <v>8.335240051637577</v>
       </c>
       <c r="Q11">
-        <v>0.01172685087748158</v>
+        <v>0.006338902914478766</v>
       </c>
       <c r="R11">
-        <v>62.71220637213217</v>
+        <v>62.83255506899372</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F12">
-        <v>18.64291894602539</v>
+        <v>10.59789686781224</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2502,101 +2694,101 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L12">
-        <v>44.97724799486787</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>27.94755756381904</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>4527730.265526723</v>
+        <v>4610858.908383902</v>
       </c>
       <c r="O12">
-        <v>4201669.082444618</v>
+        <v>4571829.973633504</v>
       </c>
       <c r="P12">
-        <v>16.37256607509078</v>
+        <v>8.361125006604869</v>
       </c>
       <c r="Q12">
-        <v>0.01261504648428702</v>
+        <v>0.006359478464474385</v>
       </c>
       <c r="R12">
-        <v>64.97814472400266</v>
+        <v>63.09242630049565</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="F13">
-        <v>18.88680046946571</v>
+        <v>10.59789685489002</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I13">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>5.096226240974513</v>
+        <v>4.865822962046021</v>
       </c>
       <c r="L13">
-        <v>94.97724799486787</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M13">
-        <v>59.01610756381904</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N13">
-        <v>4865822.962046022</v>
+        <v>4571829.973633504</v>
       </c>
       <c r="O13">
-        <v>4201669.082444618</v>
+        <v>4532473.953424673</v>
       </c>
       <c r="P13">
-        <v>16.42245971418182</v>
+        <v>8.38725518159087</v>
       </c>
       <c r="Q13">
-        <v>0.01265348948543399</v>
+        <v>0.006380196200296794</v>
       </c>
       <c r="R13">
-        <v>64.97814472400266</v>
+        <v>63.35847508329839</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F14">
-        <v>37.52971925258475</v>
+        <v>10.59789683155785</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -2614,45 +2806,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L14">
-        <v>5.022752005132133</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M14">
-        <v>3.120992436180958</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N14">
-        <v>4201669.082444618</v>
+        <v>4532473.953424673</v>
       </c>
       <c r="O14">
-        <v>4054081.551508321</v>
+        <v>4491549.459627541</v>
       </c>
       <c r="P14">
-        <v>34.09825721429681</v>
+        <v>8.414454313325386</v>
       </c>
       <c r="Q14">
-        <v>0.02629788488563565</v>
+        <v>0.006401780046283296</v>
       </c>
       <c r="R14">
-        <v>66.0913046346774</v>
+        <v>63.63872772220137</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F15">
-        <v>18.53785958495931</v>
+        <v>10.59789680699632</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -2670,45 +2862,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M15">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N15">
-        <v>4865822.962046022</v>
+        <v>4491549.459627541</v>
       </c>
       <c r="O15">
-        <v>4531487.977290199</v>
+        <v>4450258.863207306</v>
       </c>
       <c r="P15">
-        <v>15.15269344255384</v>
+        <v>8.441922583108827</v>
       </c>
       <c r="Q15">
-        <v>0.011651320406298</v>
+        <v>0.006423597252405318</v>
       </c>
       <c r="R15">
-        <v>62.68750946773076</v>
+        <v>63.92529031739276</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F16">
-        <v>18.53785958483234</v>
+        <v>10.59789678430514</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -2726,48 +2918,48 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L16">
-        <v>14.16469988830436</v>
+        <v>13.09841650699077</v>
       </c>
       <c r="M16">
-        <v>8.801533734295569</v>
+        <v>8.138976163365362</v>
       </c>
       <c r="N16">
-        <v>4531487.977290199</v>
+        <v>4450258.863207306</v>
       </c>
       <c r="O16">
-        <v>4432431.123685917</v>
+        <v>4417544.951862872</v>
       </c>
       <c r="P16">
-        <v>15.47410921142417</v>
+        <v>8.4637018235185</v>
       </c>
       <c r="Q16">
-        <v>0.01190560418350003</v>
+        <v>0.006440910364966464</v>
       </c>
       <c r="R16">
-        <v>63.3488778505408</v>
+        <v>64.15509863714081</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="F17">
-        <v>18.78037738692247</v>
+        <v>27.08027465548096</v>
       </c>
       <c r="G17">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="H17" t="s">
         <v>96</v>
@@ -2776,51 +2968,51 @@
         <v>7.925</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17">
-        <v>5.096226240974513</v>
+        <v>5.2393506610438</v>
       </c>
       <c r="L17">
-        <v>64.16469988830436</v>
+        <v>21.07195830672068</v>
       </c>
       <c r="M17">
-        <v>39.87008373429557</v>
+        <v>13.09350380500534</v>
       </c>
       <c r="N17">
-        <v>4865822.962046022</v>
+        <v>4495272.73813432</v>
       </c>
       <c r="O17">
-        <v>4432431.123685917</v>
+        <v>4417544.951862872</v>
       </c>
       <c r="P17">
-        <v>15.52127369450359</v>
+        <v>12.38360578345775</v>
       </c>
       <c r="Q17">
-        <v>0.01194189200203555</v>
+        <v>0.00942141979757378</v>
       </c>
       <c r="R17">
-        <v>63.3488778505408</v>
+        <v>64.15509863714081</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F18">
-        <v>37.31823697365765</v>
+        <v>37.67816880200672</v>
       </c>
       <c r="G18">
         <v>650</v>
@@ -2838,25 +3030,1817 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L18">
-        <v>35.83530011169564</v>
+        <v>3.568250159675895</v>
       </c>
       <c r="M18">
-        <v>22.26701626570443</v>
+        <v>2.217207169967971</v>
       </c>
       <c r="N18">
-        <v>4432431.123685917</v>
+        <v>4417544.951862872</v>
       </c>
       <c r="O18">
-        <v>3327636.285616316</v>
+        <v>4315115.043588045</v>
       </c>
       <c r="P18">
-        <v>40.9021515466116</v>
+        <v>30.09996403622302</v>
       </c>
       <c r="Q18">
-        <v>0.0317120943373374</v>
+        <v>0.02291467048844077</v>
       </c>
       <c r="R18">
-        <v>72.59026957480964</v>
+        <v>64.89100297463088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19">
+        <v>18.64563402246109</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O19">
+        <v>4753350.415848681</v>
+      </c>
+      <c r="P19">
+        <v>14.57862287763552</v>
+      </c>
+      <c r="Q19">
+        <v>0.01108106838864182</v>
+      </c>
+      <c r="R19">
+        <v>61.91268277098044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20">
+        <v>18.6456340216328</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>4753350.415848681</v>
+      </c>
+      <c r="O20">
+        <v>4638236.149734442</v>
+      </c>
+      <c r="P20">
+        <v>14.62474579023407</v>
+      </c>
+      <c r="Q20">
+        <v>0.0111208756401468</v>
+      </c>
+      <c r="R20">
+        <v>62.65263517604552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21">
+        <v>18.64563402090004</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>4638236.149734442</v>
+      </c>
+      <c r="O21">
+        <v>4520283.244479085</v>
+      </c>
+      <c r="P21">
+        <v>14.67131382453978</v>
+      </c>
+      <c r="Q21">
+        <v>0.01116094941321605</v>
+      </c>
+      <c r="R21">
+        <v>63.44157009864767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22">
+        <v>18.6456340199667</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>4520283.244479085</v>
+      </c>
+      <c r="O22">
+        <v>4399255.706837138</v>
+      </c>
+      <c r="P22">
+        <v>14.71833421532186</v>
+      </c>
+      <c r="Q22">
+        <v>0.01120143795698709</v>
+      </c>
+      <c r="R22">
+        <v>64.28466179151364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23">
+        <v>18.64563401893669</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>4399255.706837138</v>
+      </c>
+      <c r="O23">
+        <v>4274899.780475004</v>
+      </c>
+      <c r="P23">
+        <v>14.76581436522719</v>
+      </c>
+      <c r="Q23">
+        <v>0.01124268406949627</v>
+      </c>
+      <c r="R23">
+        <v>65.18693056907547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24">
+        <v>18.64563401794053</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L24">
+        <v>12.53397034965694</v>
+      </c>
+      <c r="M24">
+        <v>7.788245690136683</v>
+      </c>
+      <c r="N24">
+        <v>4274899.780475004</v>
+      </c>
+      <c r="O24">
+        <v>4179012.552273548</v>
+      </c>
+      <c r="P24">
+        <v>14.80182871169439</v>
+      </c>
+      <c r="Q24">
+        <v>0.01127421414522757</v>
+      </c>
+      <c r="R24">
+        <v>65.9093463888009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25">
+        <v>18.88956186620664</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25">
+        <v>7.925</v>
+      </c>
+      <c r="J25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L25">
+        <v>15.97788394716505</v>
+      </c>
+      <c r="M25">
+        <v>9.928193726133893</v>
+      </c>
+      <c r="N25">
+        <v>4300882.604754818</v>
+      </c>
+      <c r="O25">
+        <v>4179012.552273548</v>
+      </c>
+      <c r="P25">
+        <v>14.86702268261778</v>
+      </c>
+      <c r="Q25">
+        <v>0.0113186469031239</v>
+      </c>
+      <c r="R25">
+        <v>65.9093463888009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26">
+        <v>37.5351959358784</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L26">
+        <v>4.132696317009728</v>
+      </c>
+      <c r="M26">
+        <v>2.567937643196652</v>
+      </c>
+      <c r="N26">
+        <v>4179012.552273548</v>
+      </c>
+      <c r="O26">
+        <v>4054307.564957525</v>
+      </c>
+      <c r="P26">
+        <v>29.8079689049451</v>
+      </c>
+      <c r="Q26">
+        <v>0.02271362797900756</v>
+      </c>
+      <c r="R26">
+        <v>66.89084599246719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27">
+        <v>18.53785725400781</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O27">
+        <v>4754603.250052063</v>
+      </c>
+      <c r="P27">
+        <v>14.49435452948312</v>
+      </c>
+      <c r="Q27">
+        <v>0.01101696673327761</v>
+      </c>
+      <c r="R27">
+        <v>61.9047731970071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28">
+        <v>18.53785725401043</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>4754603.250052063</v>
+      </c>
+      <c r="O28">
+        <v>4640801.709964122</v>
+      </c>
+      <c r="P28">
+        <v>14.54021084262087</v>
+      </c>
+      <c r="Q28">
+        <v>0.01105648647323874</v>
+      </c>
+      <c r="R28">
+        <v>62.63585372240079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29">
+        <v>18.537857254011</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>4640801.709964122</v>
+      </c>
+      <c r="O29">
+        <v>4524228.633738885</v>
+      </c>
+      <c r="P29">
+        <v>14.58650970406948</v>
+      </c>
+      <c r="Q29">
+        <v>0.01109628742767504</v>
+      </c>
+      <c r="R29">
+        <v>63.41464153494331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30">
+        <v>18.53785725401271</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L30">
+        <v>15.82959272209196</v>
+      </c>
+      <c r="M30">
+        <v>9.836049859319003</v>
+      </c>
+      <c r="N30">
+        <v>4524228.633738885</v>
+      </c>
+      <c r="O30">
+        <v>4410736.662136447</v>
+      </c>
+      <c r="P30">
+        <v>14.63089954562977</v>
+      </c>
+      <c r="Q30">
+        <v>0.01113444075745294</v>
+      </c>
+      <c r="R30">
+        <v>64.20323777454651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31">
+        <v>18.7803797187331</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31">
+        <v>7.925</v>
+      </c>
+      <c r="J31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L31">
+        <v>16.45739818052299</v>
+      </c>
+      <c r="M31">
+        <v>10.22614996482975</v>
+      </c>
+      <c r="N31">
+        <v>4528672.725749753</v>
+      </c>
+      <c r="O31">
+        <v>4410736.662136447</v>
+      </c>
+      <c r="P31">
+        <v>14.69570047028942</v>
+      </c>
+      <c r="Q31">
+        <v>0.0111791828244843</v>
+      </c>
+      <c r="R31">
+        <v>64.20323777454651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32">
+        <v>37.31823697262856</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L32">
+        <v>0.8370739445747084</v>
+      </c>
+      <c r="M32">
+        <v>0.5201334740143312</v>
+      </c>
+      <c r="N32">
+        <v>4410736.662136447</v>
+      </c>
+      <c r="O32">
+        <v>4387321.043779173</v>
+      </c>
+      <c r="P32">
+        <v>29.45531868836093</v>
+      </c>
+      <c r="Q32">
+        <v>0.02241802595731187</v>
+      </c>
+      <c r="R32">
+        <v>64.36963280636577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33">
+        <v>37.31823697277751</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M33">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N33">
+        <v>4387321.043779173</v>
+      </c>
+      <c r="O33">
+        <v>3892759.924267046</v>
+      </c>
+      <c r="P33">
+        <v>29.55032179304589</v>
+      </c>
+      <c r="Q33">
+        <v>0.02253039967601313</v>
+      </c>
+      <c r="R33">
+        <v>68.23003012169436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34">
+        <v>37.3182369730135</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L34">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M34">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N34">
+        <v>3892759.924267046</v>
+      </c>
+      <c r="O34">
+        <v>3327468.671111471</v>
+      </c>
+      <c r="P34">
+        <v>29.64625981236443</v>
+      </c>
+      <c r="Q34">
+        <v>0.02264998111831337</v>
+      </c>
+      <c r="R34">
+        <v>73.66653097265153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35">
+        <v>27.59046915855189</v>
+      </c>
+      <c r="G35">
+        <v>750</v>
+      </c>
+      <c r="H35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35">
+        <v>6.35</v>
+      </c>
+      <c r="J35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L35">
+        <v>16.81777024701027</v>
+      </c>
+      <c r="M35">
+        <v>10.45007471615502</v>
+      </c>
+      <c r="N35">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O35">
+        <v>4755392.817858991</v>
+      </c>
+      <c r="P35">
+        <v>16.01230848363221</v>
+      </c>
+      <c r="Q35">
+        <v>0.01217070853669963</v>
+      </c>
+      <c r="R35">
+        <v>61.89978994039217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36">
+        <v>27.59047276459795</v>
+      </c>
+      <c r="G36">
+        <v>750</v>
+      </c>
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36">
+        <v>6.35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L36">
+        <v>16.81777024701027</v>
+      </c>
+      <c r="M36">
+        <v>10.45007471615502</v>
+      </c>
+      <c r="N36">
+        <v>4755392.817858991</v>
+      </c>
+      <c r="O36">
+        <v>4642418.218026759</v>
+      </c>
+      <c r="P36">
+        <v>16.01231716120711</v>
+      </c>
+      <c r="Q36">
+        <v>0.01217071513239038</v>
+      </c>
+      <c r="R36">
+        <v>62.6252869872871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37">
+        <v>27.59047591479526</v>
+      </c>
+      <c r="G37">
+        <v>750</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37">
+        <v>6.35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L37">
+        <v>16.81777024701027</v>
+      </c>
+      <c r="M37">
+        <v>10.45007471615502</v>
+      </c>
+      <c r="N37">
+        <v>4642418.218026759</v>
+      </c>
+      <c r="O37">
+        <v>4526713.908648961</v>
+      </c>
+      <c r="P37">
+        <v>15.98837792291839</v>
+      </c>
+      <c r="Q37">
+        <v>0.01215760925320481</v>
+      </c>
+      <c r="R37">
+        <v>63.39769631910031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38">
+        <v>27.08027494851129</v>
+      </c>
+      <c r="G38">
+        <v>850</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38">
+        <v>7.925</v>
+      </c>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K38">
+        <v>5.2393506610438</v>
+      </c>
+      <c r="L38">
+        <v>21.07195830672068</v>
+      </c>
+      <c r="M38">
+        <v>13.09350380500534</v>
+      </c>
+      <c r="N38">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O38">
+        <v>4793936.62222123</v>
+      </c>
+      <c r="P38">
+        <v>12.43499128922512</v>
+      </c>
+      <c r="Q38">
+        <v>0.00945033254481299</v>
+      </c>
+      <c r="R38">
+        <v>61.65797936344497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39">
+        <v>27.08027488188716</v>
+      </c>
+      <c r="G39">
+        <v>850</v>
+      </c>
+      <c r="H39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39">
+        <v>7.925</v>
+      </c>
+      <c r="J39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K39">
+        <v>5.2393506610438</v>
+      </c>
+      <c r="L39">
+        <v>21.07195830672068</v>
+      </c>
+      <c r="M39">
+        <v>13.09350380500534</v>
+      </c>
+      <c r="N39">
+        <v>4793936.62222123</v>
+      </c>
+      <c r="O39">
+        <v>4720989.282804346</v>
+      </c>
+      <c r="P39">
+        <v>12.43499120044213</v>
+      </c>
+      <c r="Q39">
+        <v>0.009450332477339785</v>
+      </c>
+      <c r="R39">
+        <v>62.1180461922909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40">
+        <v>27.08027482328953</v>
+      </c>
+      <c r="G40">
+        <v>850</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40">
+        <v>7.925</v>
+      </c>
+      <c r="J40" t="s">
+        <v>93</v>
+      </c>
+      <c r="K40">
+        <v>5.2393506610438</v>
+      </c>
+      <c r="L40">
+        <v>21.07195830672068</v>
+      </c>
+      <c r="M40">
+        <v>13.09350380500534</v>
+      </c>
+      <c r="N40">
+        <v>4720989.282804346</v>
+      </c>
+      <c r="O40">
+        <v>4646932.530022185</v>
+      </c>
+      <c r="P40">
+        <v>12.42208426527525</v>
+      </c>
+      <c r="Q40">
+        <v>0.00944302087065162</v>
+      </c>
+      <c r="R40">
+        <v>62.59580628255523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41">
+        <v>27.08027476018099</v>
+      </c>
+      <c r="G41">
+        <v>850</v>
+      </c>
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41">
+        <v>7.925</v>
+      </c>
+      <c r="J41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41">
+        <v>5.2393506610438</v>
+      </c>
+      <c r="L41">
+        <v>21.07195830672068</v>
+      </c>
+      <c r="M41">
+        <v>13.09350380500534</v>
+      </c>
+      <c r="N41">
+        <v>4646932.530022185</v>
+      </c>
+      <c r="O41">
+        <v>4571714.152211138</v>
+      </c>
+      <c r="P41">
+        <v>12.40921785299841</v>
+      </c>
+      <c r="Q41">
+        <v>0.009435844333622826</v>
+      </c>
+      <c r="R41">
+        <v>63.09320434915675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42">
+        <v>27.08027472302109</v>
+      </c>
+      <c r="G42">
+        <v>850</v>
+      </c>
+      <c r="H42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42">
+        <v>7.925</v>
+      </c>
+      <c r="J42" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42">
+        <v>5.2393506610438</v>
+      </c>
+      <c r="L42">
+        <v>21.07195830672068</v>
+      </c>
+      <c r="M42">
+        <v>13.09350380500534</v>
+      </c>
+      <c r="N42">
+        <v>4571714.152211138</v>
+      </c>
+      <c r="O42">
+        <v>4495272.73813432</v>
+      </c>
+      <c r="P42">
+        <v>12.39639178417799</v>
+      </c>
+      <c r="Q42">
+        <v>0.00942870928921106</v>
+      </c>
+      <c r="R42">
+        <v>63.61307665175323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43">
+        <v>18.8895618733111</v>
+      </c>
+      <c r="G43">
+        <v>650</v>
+      </c>
+      <c r="H43" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43">
+        <v>7.925</v>
+      </c>
+      <c r="J43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L43">
+        <v>15.97788394716505</v>
+      </c>
+      <c r="M43">
+        <v>9.928193726133893</v>
+      </c>
+      <c r="N43">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O43">
+        <v>4758049.557277067</v>
+      </c>
+      <c r="P43">
+        <v>15.05151273706528</v>
+      </c>
+      <c r="Q43">
+        <v>0.01144031228631226</v>
+      </c>
+      <c r="R43">
+        <v>61.88303110108616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44">
+        <v>18.88956187062584</v>
+      </c>
+      <c r="G44">
+        <v>650</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44">
+        <v>7.925</v>
+      </c>
+      <c r="J44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L44">
+        <v>15.97788394716505</v>
+      </c>
+      <c r="M44">
+        <v>9.928193726133893</v>
+      </c>
+      <c r="N44">
+        <v>4758049.557277067</v>
+      </c>
+      <c r="O44">
+        <v>4647855.372589019</v>
+      </c>
+      <c r="P44">
+        <v>15.05151272540506</v>
+      </c>
+      <c r="Q44">
+        <v>0.01144031227744959</v>
+      </c>
+      <c r="R44">
+        <v>62.58978478500724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45">
+        <v>18.88956186971611</v>
+      </c>
+      <c r="G45">
+        <v>650</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45">
+        <v>7.925</v>
+      </c>
+      <c r="J45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L45">
+        <v>15.97788394716505</v>
+      </c>
+      <c r="M45">
+        <v>9.928193726133893</v>
+      </c>
+      <c r="N45">
+        <v>4647855.372589019</v>
+      </c>
+      <c r="O45">
+        <v>4535069.562461166</v>
+      </c>
+      <c r="P45">
+        <v>15.00474020726956</v>
+      </c>
+      <c r="Q45">
+        <v>0.0114094136105179</v>
+      </c>
+      <c r="R45">
+        <v>63.34082486567923</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46">
+        <v>18.8895618689621</v>
+      </c>
+      <c r="G46">
+        <v>650</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46">
+        <v>7.925</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L46">
+        <v>15.97788394716505</v>
+      </c>
+      <c r="M46">
+        <v>9.928193726133893</v>
+      </c>
+      <c r="N46">
+        <v>4535069.562461166</v>
+      </c>
+      <c r="O46">
+        <v>4419485.097279621</v>
+      </c>
+      <c r="P46">
+        <v>14.95840554902316</v>
+      </c>
+      <c r="Q46">
+        <v>0.01137877916814029</v>
+      </c>
+      <c r="R46">
+        <v>64.1414003316936</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47">
+        <v>18.8895618679377</v>
+      </c>
+      <c r="G47">
+        <v>650</v>
+      </c>
+      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47">
+        <v>7.925</v>
+      </c>
+      <c r="J47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L47">
+        <v>15.97788394716505</v>
+      </c>
+      <c r="M47">
+        <v>9.928193726133893</v>
+      </c>
+      <c r="N47">
+        <v>4419485.097279621</v>
+      </c>
+      <c r="O47">
+        <v>4300882.604754818</v>
+      </c>
+      <c r="P47">
+        <v>14.91250193110602</v>
+      </c>
+      <c r="Q47">
+        <v>0.01134839470080944</v>
+      </c>
+      <c r="R47">
+        <v>64.99527233584992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48">
+        <v>18.78037971876738</v>
+      </c>
+      <c r="G48">
+        <v>650</v>
+      </c>
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48">
+        <v>7.925</v>
+      </c>
+      <c r="J48" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L48">
+        <v>16.45739818052299</v>
+      </c>
+      <c r="M48">
+        <v>10.22614996482975</v>
+      </c>
+      <c r="N48">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O48">
+        <v>4756015.331704091</v>
+      </c>
+      <c r="P48">
+        <v>14.78766803806265</v>
+      </c>
+      <c r="Q48">
+        <v>0.01123985284959592</v>
+      </c>
+      <c r="R48">
+        <v>61.89586187190534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49">
+        <v>18.78037971879049</v>
+      </c>
+      <c r="G49">
+        <v>650</v>
+      </c>
+      <c r="H49" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49">
+        <v>7.925</v>
+      </c>
+      <c r="J49" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L49">
+        <v>16.45739818052299</v>
+      </c>
+      <c r="M49">
+        <v>10.22614996482975</v>
+      </c>
+      <c r="N49">
+        <v>4756015.331704091</v>
+      </c>
+      <c r="O49">
+        <v>4643692.516783032</v>
+      </c>
+      <c r="P49">
+        <v>14.78766803793949</v>
+      </c>
+      <c r="Q49">
+        <v>0.01123985284950232</v>
+      </c>
+      <c r="R49">
+        <v>62.61696096282754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50">
+        <v>18.78037971878791</v>
+      </c>
+      <c r="G50">
+        <v>650</v>
+      </c>
+      <c r="H50" t="s">
+        <v>96</v>
+      </c>
+      <c r="I50">
+        <v>7.925</v>
+      </c>
+      <c r="J50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L50">
+        <v>16.45739818052299</v>
+      </c>
+      <c r="M50">
+        <v>10.22614996482975</v>
+      </c>
+      <c r="N50">
+        <v>4643692.516783032</v>
+      </c>
+      <c r="O50">
+        <v>4528672.725749753</v>
+      </c>
+      <c r="P50">
+        <v>14.74146686415139</v>
+      </c>
+      <c r="Q50">
+        <v>0.01120940037007533</v>
+      </c>
+      <c r="R50">
+        <v>63.3843501903954</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +4858,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2889,43 +4873,43 @@
         <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>105</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2933,13 +4917,13 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2948,16 +4932,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.133720149242413</v>
+        <v>1.133600105907577</v>
       </c>
       <c r="I2">
-        <v>85.7696039551105</v>
+        <v>88.09280193906284</v>
       </c>
       <c r="J2">
-        <v>8.973797769597157</v>
+        <v>9.216866501704573</v>
       </c>
       <c r="K2">
-        <v>12034.04228498518</v>
+        <v>12360.00231611587</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2986,13 +4970,13 @@
         <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -3001,16 +4985,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.127634025970486</v>
+        <v>1.127622997972276</v>
       </c>
       <c r="I3">
-        <v>67.25356423984609</v>
+        <v>69.18322002082708</v>
       </c>
       <c r="J3">
-        <v>7.03652409411679</v>
+        <v>7.238417771421404</v>
       </c>
       <c r="K3">
-        <v>9436.119540692498</v>
+        <v>9706.862999831532</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3039,31 +5023,31 @@
         <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.200228189843811</v>
+        <v>1.200161281325236</v>
       </c>
       <c r="I4">
-        <v>102.3364394423862</v>
+        <v>104.986626620129</v>
       </c>
       <c r="J4">
-        <v>10.70713247664333</v>
+        <v>10.9844130362818</v>
       </c>
       <c r="K4">
-        <v>14358.47879382824</v>
+        <v>14730.31756991462</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3094,7 +5078,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3102,15 +5086,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -3118,130 +5102,386 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B3">
-        <v>4604711.019968713</v>
+        <v>4778476.136650475</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B4">
-        <v>4421055.739474997</v>
+        <v>4689552.76556046</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B5">
-        <v>4291908.338488573</v>
+        <v>4598964.269582397</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B6">
-        <v>4865822.962046022</v>
+        <v>4494935.289049209</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="B7">
-        <v>4654255.379233229</v>
+        <v>4408056.77505426</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="B8">
-        <v>4539949.726487547</v>
+        <v>4292362.832967781</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B9">
-        <v>4429122.43975577</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B10">
-        <v>4315072.842767674</v>
+        <v>4758887.900226681</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B11">
-        <v>4865822.962046022</v>
+        <v>4649570.415577726</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B12">
-        <v>4527730.265526723</v>
+        <v>4610858.908383902</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="B13">
-        <v>4201669.082444618</v>
+        <v>4571829.973633504</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="B14">
-        <v>4054081.551508321</v>
+        <v>4532473.953424673</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B15">
-        <v>4865822.962046022</v>
+        <v>4491549.459627541</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="B16">
-        <v>4531487.977290199</v>
+        <v>4450258.863207306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B17">
-        <v>4432431.123685917</v>
+        <v>4417544.951862872</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="B18">
-        <v>3327636.285616316</v>
+        <v>4315115.043588045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20">
+        <v>4753350.415848681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21">
+        <v>4638236.149734442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22">
+        <v>4520283.244479085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23">
+        <v>4399255.706837138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24">
+        <v>4274899.780475004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25">
+        <v>4179012.552273548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26">
+        <v>4054307.564957525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>4754603.250052063</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29">
+        <v>4640801.709964122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30">
+        <v>4524228.633738885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31">
+        <v>4410736.662136447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32">
+        <v>4387321.043779173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33">
+        <v>3892759.924267046</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34">
+        <v>3327468.671111471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35">
+        <v>4755392.817858991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36">
+        <v>4642418.218026759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37">
+        <v>4526713.908648961</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38">
+        <v>4793936.62222123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39">
+        <v>4720989.282804346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40">
+        <v>4646932.530022185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41">
+        <v>4571714.152211138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42">
+        <v>4495272.73813432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43">
+        <v>4758049.557277067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44">
+        <v>4647855.372589019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45">
+        <v>4535069.562461166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46">
+        <v>4419485.097279621</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47">
+        <v>4300882.604754818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48">
+        <v>4756015.331704091</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49">
+        <v>4643692.516783032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50">
+        <v>4528672.725749753</v>
       </c>
     </row>
   </sheetData>
@@ -3259,36 +5499,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112655038464142</v>
+        <v>8.112661427995015</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -3297,21 +5537,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.519657677729</v>
+        <v>1150.520563827545</v>
       </c>
       <c r="G2">
-        <v>-6.45205657848566E-05</v>
+        <v>1.423942979663065E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.092916427697</v>
+        <v>21.09291642733291</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -3320,21 +5560,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353000067063</v>
+        <v>2991.353000015429</v>
       </c>
       <c r="G3">
-        <v>2.24190882208399E-09</v>
+        <v>5.157880910460016E-10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
       </c>
       <c r="C4">
-        <v>16.22532054596066</v>
+        <v>16.22532054568059</v>
       </c>
       <c r="D4">
         <v>141.8178946624533</v>
@@ -3343,10 +5583,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040800051587</v>
+        <v>2301.040800011869</v>
       </c>
       <c r="G4">
-        <v>2.241898686209554E-09</v>
+        <v>5.15784715516977E-10</v>
       </c>
     </row>
   </sheetData>
